--- a/tests/TechnicalTest/Documentations/Test Cases.xlsx
+++ b/tests/TechnicalTest/Documentations/Test Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\eclipse\TechnicalTest_QA\Documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\INSTANDA\tests\TechnicalTest\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="End To End Testing" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="138">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -878,6 +878,117 @@
   </si>
   <si>
     <t>src.test.resources.features.ProductFilterValidations.feature</t>
+  </si>
+  <si>
+    <t>TC004_ eShopOnWeb site_ unit_ Login Functionality_without credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User try to login without username and password. Validate if user gets email not present error message and password not present error message.
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: Demouser@microsoft.com
+ password: Pass@word1
+</t>
+  </si>
+  <si>
+    <t>Launch browser and Navigate to url : https://localhost:5001/</t>
+  </si>
+  <si>
+    <t>eShopOnweb page should be displayed.</t>
+  </si>
+  <si>
+    <t>In Product Page, Click on Login button</t>
+  </si>
+  <si>
+    <t>Click on Login Button</t>
+  </si>
+  <si>
+    <t>Validate if "The email field is required" error message is displayed in form and field level.</t>
+  </si>
+  <si>
+    <t>Validate if "The password field is required" error message is displayed in form and field level.</t>
+  </si>
+  <si>
+    <t>Login Page should display.</t>
+  </si>
+  <si>
+    <t>User should not be logged in.</t>
+  </si>
+  <si>
+    <t>"The email field is required" error message should be displayed in form and field level.</t>
+  </si>
+  <si>
+    <t>"The password field is required" error message should be displayed in form and field level.</t>
+  </si>
+  <si>
+    <t>src.test.resources.features.LoginValidation.feature</t>
+  </si>
+  <si>
+    <t>TC005_ eShopOnWeb site_ unit_ Login Functionality_without email</t>
+  </si>
+  <si>
+    <t>User try to login without username. Validate if user gets user should get email not present error messages</t>
+  </si>
+  <si>
+    <t>User should provide valid password</t>
+  </si>
+  <si>
+    <t>password should be captured.</t>
+  </si>
+  <si>
+    <t>User try to login without password. Validate if user gets password not present error message.</t>
+  </si>
+  <si>
+    <t>TC006_ eShopOnWeb site_ unit_ Login Functionality_without password</t>
+  </si>
+  <si>
+    <t>User should provide valid mail ID</t>
+  </si>
+  <si>
+    <t>mail ID should be captured.</t>
+  </si>
+  <si>
+    <t>User try to login with invalid email ID. Validate if user gets invalid login attempt error messages.</t>
+  </si>
+  <si>
+    <t>TC007_ eShopOnWeb site_ unit_ Login Functionality_with invalid email</t>
+  </si>
+  <si>
+    <t>User should provide invalid email ID</t>
+  </si>
+  <si>
+    <t>email ID should be captured.</t>
+  </si>
+  <si>
+    <t>Validate if "Invalid login attempt" error message is displayed in form and field level.</t>
+  </si>
+  <si>
+    <t>"Invalid login attempt" error message should be displayed in form and field level.</t>
+  </si>
+  <si>
+    <t>TC008_ eShopOnWeb site_ unit_ Login Functionality_with invalid password</t>
+  </si>
+  <si>
+    <t>User try to login with invalid password. Validate if user gets invalid login attempt error messages.</t>
+  </si>
+  <si>
+    <t>User should provide valid email ID</t>
+  </si>
+  <si>
+    <t>User should provide invalid password</t>
+  </si>
+  <si>
+    <t>TC009_ eShopOnWeb site_ unit_ Login Functionality_with valid credentials</t>
+  </si>
+  <si>
+    <t>User try to login with correct username and password. Validate User is logged in</t>
+  </si>
+  <si>
+    <t>Validate if user is logged in</t>
+  </si>
+  <si>
+    <t>User should be logged in</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1110,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1131,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,19 +1464,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="9">
@@ -1371,16 +1488,16 @@
       <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="9">
         <v>2</v>
       </c>
@@ -1390,14 +1507,14 @@
       <c r="H3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="9">
         <v>3</v>
       </c>
@@ -1407,14 +1524,14 @@
       <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="9">
         <v>4</v>
       </c>
@@ -1424,14 +1541,14 @@
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="9">
         <v>5</v>
       </c>
@@ -1441,7 +1558,7 @@
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1455,19 +1572,19 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="9">
@@ -1479,16 +1596,16 @@
       <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="9">
         <v>2</v>
       </c>
@@ -1498,14 +1615,14 @@
       <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="9">
         <v>3</v>
       </c>
@@ -1515,14 +1632,14 @@
       <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="9">
         <v>4</v>
       </c>
@@ -1532,14 +1649,14 @@
       <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -1549,14 +1666,14 @@
       <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="9">
         <v>6</v>
       </c>
@@ -1566,14 +1683,14 @@
       <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="9">
         <v>7</v>
       </c>
@@ -1583,14 +1700,14 @@
       <c r="H14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="9">
         <v>8</v>
       </c>
@@ -1600,14 +1717,14 @@
       <c r="H15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="9">
         <v>9</v>
       </c>
@@ -1617,14 +1734,14 @@
       <c r="H16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="9">
         <v>10</v>
       </c>
@@ -1634,14 +1751,14 @@
       <c r="H17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="9">
         <v>11</v>
       </c>
@@ -1651,14 +1768,14 @@
       <c r="H18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="9">
         <v>12</v>
       </c>
@@ -1668,14 +1785,14 @@
       <c r="H19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="9">
         <v>13</v>
       </c>
@@ -1685,14 +1802,14 @@
       <c r="H20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="9">
         <v>14</v>
       </c>
@@ -1702,7 +1819,7 @@
       <c r="H21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -1716,19 +1833,19 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="20">
         <v>3</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="9">
@@ -1740,16 +1857,16 @@
       <c r="H23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="9">
         <v>2</v>
       </c>
@@ -1759,14 +1876,14 @@
       <c r="H24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="9">
         <v>3</v>
       </c>
@@ -1776,14 +1893,14 @@
       <c r="H25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="9">
         <v>4</v>
       </c>
@@ -1793,14 +1910,14 @@
       <c r="H26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="16"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="9">
         <v>5</v>
       </c>
@@ -1810,14 +1927,14 @@
       <c r="H27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="9">
         <v>6</v>
       </c>
@@ -1827,14 +1944,14 @@
       <c r="H28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="9">
         <v>7</v>
       </c>
@@ -1844,14 +1961,14 @@
       <c r="H29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="9">
         <v>8</v>
       </c>
@@ -1861,14 +1978,14 @@
       <c r="H30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="9">
         <v>9</v>
       </c>
@@ -1878,7 +1995,7 @@
       <c r="H31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
@@ -1892,19 +2009,19 @@
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="22">
         <v>4</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="9"/>
@@ -1914,16 +2031,16 @@
       <c r="H33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="9"/>
       <c r="G34" s="5" t="s">
         <v>79</v>
@@ -1931,14 +2048,14 @@
       <c r="H34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="9"/>
       <c r="G35" s="5" t="s">
         <v>82</v>
@@ -1946,14 +2063,14 @@
       <c r="H35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="9"/>
       <c r="G36" s="5" t="s">
         <v>83</v>
@@ -1961,14 +2078,14 @@
       <c r="H36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="9"/>
       <c r="G37" s="5" t="s">
         <v>85</v>
@@ -1976,29 +2093,29 @@
       <c r="H37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="9"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="17"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="9"/>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="17"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
@@ -2022,11 +2139,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I8:I21"/>
-    <mergeCell ref="I23:I31"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
     <mergeCell ref="D8:D21"/>
     <mergeCell ref="A8:A21"/>
     <mergeCell ref="B8:B21"/>
@@ -2035,17 +2155,14 @@
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I8:I21"/>
+    <mergeCell ref="I23:I31"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="E2:E6"/>
     <mergeCell ref="E8:E21"/>
     <mergeCell ref="E23:E31"/>
     <mergeCell ref="E33:E39"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2057,17 +2174,18 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B18"/>
+    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="5" width="33" customWidth="1"/>
+    <col min="3" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" customWidth="1"/>
@@ -2104,19 +2222,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="9">
@@ -2128,16 +2246,16 @@
       <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="9">
         <v>2</v>
       </c>
@@ -2147,14 +2265,14 @@
       <c r="H3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="9">
         <v>3</v>
       </c>
@@ -2164,14 +2282,14 @@
       <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="9">
         <v>4</v>
       </c>
@@ -2181,14 +2299,14 @@
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="9">
         <v>5</v>
       </c>
@@ -2198,7 +2316,7 @@
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -2212,19 +2330,19 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="21">
         <v>2</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="9">
@@ -2236,16 +2354,16 @@
       <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="9">
         <v>2</v>
       </c>
@@ -2255,14 +2373,14 @@
       <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="9">
         <v>3</v>
       </c>
@@ -2272,14 +2390,14 @@
       <c r="H10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="9">
         <v>4</v>
       </c>
@@ -2289,14 +2407,14 @@
       <c r="H11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -2306,7 +2424,7 @@
       <c r="H12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -2320,19 +2438,19 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="9">
@@ -2344,16 +2462,16 @@
       <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="9">
         <v>2</v>
       </c>
@@ -2363,14 +2481,14 @@
       <c r="H15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="9">
         <v>3</v>
       </c>
@@ -2380,14 +2498,14 @@
       <c r="H16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="9">
         <v>4</v>
       </c>
@@ -2397,14 +2515,14 @@
       <c r="H17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="9">
         <v>5</v>
       </c>
@@ -2414,7 +2532,7 @@
       <c r="H18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -2427,8 +2545,741 @@
       <c r="H19" s="13"/>
       <c r="I19" s="15"/>
     </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>4</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="16">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>5</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="16">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="16">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="16">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>6</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="16">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="16">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="16">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>7</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="16">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="16">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="16">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="16">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>8</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="16">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="16">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="16">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="16">
+        <v>5</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="16">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>9</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="16">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="16">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="16">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="16">
+        <v>5</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="16">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="54">
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="I8:I12"/>
     <mergeCell ref="I14:I18"/>
@@ -2445,9 +3296,8 @@
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>